--- a/SubRES_TMPL/SubRes_SUP_ImportExport_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_SUP_ImportExport_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bae57ad8ea7bb4f/OneDrive/GitHub^J Inc/EnergyIsland/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39355A-09E7-4471-8AE9-BA894ACF0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0E39355A-09E7-4471-8AE9-BA894ACF0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E15F0AE-D03B-44B4-B112-AD43E8BF1AFE}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3345" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51855" yWindow="3150" windowWidth="20760" windowHeight="12180" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="25" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="281">
   <si>
     <t>DKE</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>½</t>
+  </si>
+  <si>
+    <t>MAR</t>
   </si>
 </sst>
 </file>
@@ -6909,6 +6912,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="2786">
+    <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="6" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20 % - Markeringsfarve1" xfId="1148" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Markeringsfarve1 2" xfId="962" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Markeringsfarve1 2 2" xfId="963" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -6945,17 +6954,11 @@
     <cellStyle name="20 % - Markeringsfarve6 3" xfId="989" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="20 % - Markeringsfarve6 4" xfId="990" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="20 % - Markeringsfarve6 5" xfId="991" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="992" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="993" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="994" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="995" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="996" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="997" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="20% - Colore 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="20% - Colore 1 2" xfId="1154" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -6969,6 +6972,12 @@
     <cellStyle name="20% - Colore 5 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="20% - Colore 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="20% - Colore 6 2" xfId="1159" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="40 % - Akzent1" xfId="13" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="14" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="15" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="16" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="17" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="18" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40 % - Markeringsfarve1" xfId="1160" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="40 % - Markeringsfarve1 2" xfId="998" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="40 % - Markeringsfarve1 2 2" xfId="999" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
@@ -7005,17 +7014,11 @@
     <cellStyle name="40 % - Markeringsfarve6 3" xfId="1025" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="40 % - Markeringsfarve6 4" xfId="1026" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40 % - Markeringsfarve6 5" xfId="1027" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - Accent1" xfId="13" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - Accent2" xfId="14" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="40% - Accent3" xfId="15" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - Accent4" xfId="16" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="1031" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="40% - Accent5" xfId="17" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - Accent6" xfId="18" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
     <cellStyle name="40% - Colore 1" xfId="19" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
     <cellStyle name="40% - Colore 1 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
@@ -7030,23 +7033,23 @@
     <cellStyle name="40% - Colore 6" xfId="24" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="40% - Colore 6 2" xfId="1171" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="5x indented GHG Textfiels" xfId="25" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60 % - Akzent1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="27" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="29" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="30" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="31" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60 % - Markeringsfarve1" xfId="1172" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="60 % - Markeringsfarve2" xfId="1173" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="60 % - Markeringsfarve3" xfId="1174" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
     <cellStyle name="60 % - Markeringsfarve4" xfId="1175" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
     <cellStyle name="60 % - Markeringsfarve5" xfId="1176" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="60 % - Markeringsfarve6" xfId="1177" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="60% - Accent1" xfId="26" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 2" xfId="1034" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="60% - Accent2" xfId="27" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent2 2" xfId="1035" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Accent3 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="60% - Accent4" xfId="29" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent4 2" xfId="1037" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="60% - Accent5" xfId="30" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent5 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="60% - Accent6" xfId="31" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 2" xfId="1039" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="60% - Colore 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
     <cellStyle name="60% - Colore 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
@@ -7054,21 +7057,21 @@
     <cellStyle name="60% - Colore 4" xfId="35" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="60% - Colore 5" xfId="36" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="60% - Colore 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Accent1" xfId="38" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Accent2" xfId="39" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 2" xfId="1041" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Accent3" xfId="40" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 2" xfId="1042" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
     <cellStyle name="AggOrange_CRFReport-template" xfId="44" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="AggOrange9_CRFReport-template" xfId="45" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Bad" xfId="46" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="38" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="39" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="40" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="41" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="727" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Bad 2" xfId="1046" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
     <cellStyle name="Bad 3" xfId="1178" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Bemærk! 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
@@ -7077,6 +7080,7 @@
     <cellStyle name="Bemærk! 3 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Bemærk! 4" xfId="1051" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Bemærk! 5" xfId="1052" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Berechnung" xfId="57" builtinId="22" customBuiltin="1"/>
     <cellStyle name="C01_Main head" xfId="1053" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
     <cellStyle name="C02_Column heads" xfId="1054" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="C03_Sub head bold" xfId="1055" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
@@ -7098,11 +7102,9 @@
     <cellStyle name="Calcolo 4" xfId="54" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Calcolo 5" xfId="55" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
     <cellStyle name="Calcolo 6" xfId="56" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Calculation" xfId="57" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Calculation 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Cella collegata" xfId="58" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
     <cellStyle name="Cella da controllare" xfId="59" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Check Cell" xfId="60" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Check Cell 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Colore 1" xfId="61" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
     <cellStyle name="Colore 2" xfId="62" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
@@ -7110,7 +7112,6 @@
     <cellStyle name="Colore 4" xfId="64" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Colore 5" xfId="65" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
     <cellStyle name="Colore 6" xfId="66" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Comma" xfId="958" builtinId="3"/>
     <cellStyle name="Comma 10" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Comma 2" xfId="67" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="Comma 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
@@ -7137,6 +7138,9 @@
     <cellStyle name="Comma0 - Type3" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
     <cellStyle name="CustomizationCells" xfId="71" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="CustomizationCells 2" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Eingabe" xfId="210" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="943" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="204" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="72" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="Euro 10" xfId="73" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
     <cellStyle name="Euro 10 2" xfId="74" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
@@ -7493,23 +7497,16 @@
     <cellStyle name="Euro 9 4" xfId="1405" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
     <cellStyle name="Euro 9 4 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
     <cellStyle name="Euro 9 5" xfId="1407" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="Explanatory Text" xfId="204" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
     <cellStyle name="Fixed2 - Type2" xfId="1408" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="Good" xfId="205" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="Heading 1" xfId="206" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="205" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="Heading 2" xfId="207" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 2 2" xfId="1085" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="Heading 3" xfId="208" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 3 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="Heading 4" xfId="209" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Heading 4 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="Hyperlink" xfId="959" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="961" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
     <cellStyle name="Hyperlink 3" xfId="1088" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="Input" xfId="210" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
     <cellStyle name="Input 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
     <cellStyle name="Input 2 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
@@ -7523,6 +7520,7 @@
     <cellStyle name="Input 3" xfId="1409" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
     <cellStyle name="Input 3 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
     <cellStyle name="InputCells" xfId="221" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Komma" xfId="958" builtinId="3"/>
     <cellStyle name="Komma 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
     <cellStyle name="Komma 2 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
     <cellStyle name="Komma 2 2 2" xfId="1091" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
@@ -7537,8 +7535,8 @@
     <cellStyle name="Komma 8" xfId="1100" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
     <cellStyle name="Komma 9" xfId="1101" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
     <cellStyle name="Kontroller celle" xfId="1411" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Link" xfId="959" builtinId="8"/>
     <cellStyle name="Link 2" xfId="1102" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="Linked Cell" xfId="222" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Linked Cell 2" xfId="1103" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
     <cellStyle name="Markeringsfarve1" xfId="1412" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
     <cellStyle name="Markeringsfarve2" xfId="1413" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
@@ -8328,7 +8326,6 @@
     <cellStyle name="Neutral" xfId="463" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
     <cellStyle name="Neutrale" xfId="464" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="465" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
     <cellStyle name="Normal 10 2" xfId="1957" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
     <cellStyle name="Normal 11" xfId="1105" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
@@ -9053,7 +9050,6 @@
     <cellStyle name="Nuovo 9 4" xfId="2394" xr:uid="{00000000-0005-0000-0000-00005D080000}"/>
     <cellStyle name="Nuovo 9 4 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-00005E080000}"/>
     <cellStyle name="Nuovo 9 5" xfId="2396" xr:uid="{00000000-0005-0000-0000-00005F080000}"/>
-    <cellStyle name="Output" xfId="727" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Output 2" xfId="728" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
     <cellStyle name="Output 2 2" xfId="729" xr:uid="{00000000-0005-0000-0000-000062080000}"/>
     <cellStyle name="Output 2 2 2" xfId="730" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
@@ -9606,6 +9602,8 @@
     <cellStyle name="Procent 5 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000860A0000}"/>
     <cellStyle name="Procent 6" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000870A0000}"/>
     <cellStyle name="Procent 7" xfId="1137" xr:uid="{00000000-0005-0000-0000-0000880A0000}"/>
+    <cellStyle name="Schlecht" xfId="46" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Style 134 2" xfId="1138" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
     <cellStyle name="Style 140" xfId="1139" xr:uid="{00000000-0005-0000-0000-00008B0A0000}"/>
     <cellStyle name="Style 142 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-00008C0A0000}"/>
@@ -9664,7 +9662,6 @@
     <cellStyle name="Testo avviso" xfId="935" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
     <cellStyle name="Testo descrittivo" xfId="936" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
     <cellStyle name="Titel 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-0000C30A0000}"/>
-    <cellStyle name="Title" xfId="937" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Title 2" xfId="1142" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
     <cellStyle name="Titolo" xfId="938" xr:uid="{00000000-0005-0000-0000-0000C60A0000}"/>
     <cellStyle name="Titolo 1" xfId="939" xr:uid="{00000000-0005-0000-0000-0000C70A0000}"/>
@@ -9674,7 +9671,6 @@
     <cellStyle name="Titolo 3" xfId="941" xr:uid="{00000000-0005-0000-0000-0000CB0A0000}"/>
     <cellStyle name="Titolo 3 2" xfId="2783" xr:uid="{00000000-0005-0000-0000-0000CC0A0000}"/>
     <cellStyle name="Titolo 4" xfId="942" xr:uid="{00000000-0005-0000-0000-0000CD0A0000}"/>
-    <cellStyle name="Total" xfId="943" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-0000CF0A0000}"/>
     <cellStyle name="Total 2 2" xfId="2784" xr:uid="{00000000-0005-0000-0000-0000D00A0000}"/>
     <cellStyle name="Totale" xfId="944" xr:uid="{00000000-0005-0000-0000-0000D10A0000}"/>
@@ -9688,12 +9684,19 @@
     <cellStyle name="Totale 4" xfId="951" xr:uid="{00000000-0005-0000-0000-0000D90A0000}"/>
     <cellStyle name="Totale 5" xfId="952" xr:uid="{00000000-0005-0000-0000-0000DA0A0000}"/>
     <cellStyle name="Totale 6" xfId="953" xr:uid="{00000000-0005-0000-0000-0000DB0A0000}"/>
+    <cellStyle name="Überschrift" xfId="937" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="206" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="207" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="208" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="209" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Valore non valido" xfId="954" xr:uid="{00000000-0005-0000-0000-0000DC0A0000}"/>
     <cellStyle name="Valore valido" xfId="955" xr:uid="{00000000-0005-0000-0000-0000DD0A0000}"/>
-    <cellStyle name="Warning Text" xfId="956" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="222" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="956" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-0000DF0A0000}"/>
     <cellStyle name="X08_Total Oil" xfId="1145" xr:uid="{00000000-0005-0000-0000-0000E00A0000}"/>
     <cellStyle name="X12_Total Figs 1 dec" xfId="1146" xr:uid="{00000000-0005-0000-0000-0000E10A0000}"/>
+    <cellStyle name="Zelle überprüfen" xfId="60" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Обычный_CRF2002 (1)" xfId="957" xr:uid="{00000000-0005-0000-0000-0000E20A0000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -10189,7 +10192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10518,16 +10521,16 @@
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="13.15">
       <c r="A3" s="48" t="s">
         <v>32</v>
       </c>
@@ -11048,24 +11051,24 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="375"/>
+    <col min="1" max="1" width="9.1328125" style="375"/>
     <col min="2" max="2" width="24" style="375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.42578125" style="375" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="375"/>
+    <col min="3" max="3" width="138.3984375" style="375" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75">
+    <row r="1" spans="2:3" ht="18">
       <c r="B1" s="374" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15">
+    <row r="2" spans="2:3" ht="14.25">
       <c r="B2" s="379"/>
       <c r="C2" s="379"/>
     </row>
-    <row r="3" spans="2:3" ht="15">
+    <row r="3" spans="2:3" ht="14.25">
       <c r="B3" s="376" t="s">
         <v>225</v>
       </c>
@@ -11073,17 +11076,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15">
+    <row r="4" spans="2:3" ht="14.25">
       <c r="B4" s="376" t="s">
         <v>226</v>
       </c>
       <c r="C4" s="379"/>
     </row>
-    <row r="5" spans="2:3" ht="15">
+    <row r="5" spans="2:3" ht="14.25">
       <c r="B5" s="376"/>
       <c r="C5" s="379"/>
     </row>
-    <row r="6" spans="2:3" ht="15">
+    <row r="6" spans="2:3" ht="14.25">
       <c r="B6" s="376" t="s">
         <v>227</v>
       </c>
@@ -11091,21 +11094,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15">
+    <row r="7" spans="2:3" ht="14.25">
       <c r="B7" s="376"/>
       <c r="C7" s="379"/>
     </row>
-    <row r="8" spans="2:3" ht="15">
+    <row r="8" spans="2:3" ht="14.25">
       <c r="B8" s="377" t="s">
         <v>229</v>
       </c>
       <c r="C8" s="379"/>
     </row>
-    <row r="9" spans="2:3" ht="15">
+    <row r="9" spans="2:3" ht="14.25">
       <c r="B9" s="376"/>
       <c r="C9" s="379"/>
     </row>
-    <row r="10" spans="2:3" ht="15">
+    <row r="10" spans="2:3" ht="14.25">
       <c r="B10" s="378" t="s">
         <v>38</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15">
+    <row r="11" spans="2:3" ht="14.25">
       <c r="B11" s="378" t="s">
         <v>231</v>
       </c>
@@ -11121,7 +11124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15">
+    <row r="12" spans="2:3" ht="14.25">
       <c r="B12" s="378" t="s">
         <v>72</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15">
+    <row r="13" spans="2:3" ht="14.25">
       <c r="B13" s="380" t="s">
         <v>233</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15">
+    <row r="14" spans="2:3" ht="14.25">
       <c r="B14" s="380" t="s">
         <v>166</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15">
+    <row r="15" spans="2:3" ht="14.25">
       <c r="B15" s="380" t="s">
         <v>236</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15">
+    <row r="16" spans="2:3" ht="14.25">
       <c r="B16" s="380" t="s">
         <v>238</v>
       </c>
@@ -11182,16 +11185,16 @@
   </sheetPr>
   <dimension ref="C6:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:14">
+    <row r="6" spans="3:14" ht="13.15">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -11200,7 +11203,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="3:14" ht="26.25" thickBot="1">
+    <row r="7" spans="3:14" ht="13.5" thickBot="1">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -11228,8 +11231,11 @@
       <c r="K7" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="8" spans="3:14">
+      <c r="L7" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="13.15">
       <c r="C8" s="47"/>
       <c r="D8" s="44" t="s">
         <v>6</v>
@@ -11409,6 +11415,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="90" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -11422,31 +11429,31 @@
   </sheetPr>
   <dimension ref="B4:AM110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" style="14"/>
-    <col min="17" max="17" width="27.7109375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="14"/>
-    <col min="20" max="20" width="10.7109375" style="14" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="14"/>
+    <col min="12" max="12" width="6.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.73046875" style="14"/>
+    <col min="17" max="17" width="27.73046875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.73046875" style="14"/>
+    <col min="20" max="20" width="10.73046875" style="14" customWidth="1"/>
+    <col min="21" max="16384" width="10.73046875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:39" ht="15">
+    <row r="4" spans="2:39" ht="14.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:39" ht="15">
+    <row r="6" spans="2:39" ht="14.25">
       <c r="B6" s="168" t="s">
         <v>173</v>
       </c>
@@ -11541,7 +11548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:39" ht="15">
+    <row r="7" spans="2:39" ht="14.25">
       <c r="B7" s="382"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -11555,7 +11562,7 @@
       <c r="L7" s="384"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="2:39" ht="15">
+    <row r="8" spans="2:39" ht="14.25">
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -11571,7 +11578,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:39">
+    <row r="9" spans="2:39" ht="13.15">
       <c r="B9" s="391" t="s">
         <v>8</v>
       </c>
@@ -11609,7 +11616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:39" ht="15">
+    <row r="10" spans="2:39" ht="14.25">
       <c r="B10" s="382" t="s">
         <v>173</v>
       </c>
@@ -11639,7 +11646,7 @@
       <c r="AL10"/>
       <c r="AM10"/>
     </row>
-    <row r="11" spans="2:39" ht="15">
+    <row r="11" spans="2:39" ht="14.25">
       <c r="B11" s="382" t="s">
         <v>173</v>
       </c>
@@ -11669,7 +11676,7 @@
       <c r="AL11"/>
       <c r="AM11"/>
     </row>
-    <row r="12" spans="2:39" ht="15">
+    <row r="12" spans="2:39" ht="14.25">
       <c r="B12" s="382" t="s">
         <v>173</v>
       </c>
@@ -11699,7 +11706,7 @@
       <c r="AL12"/>
       <c r="AM12"/>
     </row>
-    <row r="13" spans="2:39" ht="15">
+    <row r="13" spans="2:39" ht="14.25">
       <c r="B13" s="382" t="s">
         <v>173</v>
       </c>
@@ -11729,7 +11736,7 @@
       <c r="AL13"/>
       <c r="AM13"/>
     </row>
-    <row r="14" spans="2:39" ht="15">
+    <row r="14" spans="2:39" ht="14.25">
       <c r="B14" s="382" t="s">
         <v>173</v>
       </c>
@@ -11759,7 +11766,7 @@
       <c r="AL14"/>
       <c r="AM14"/>
     </row>
-    <row r="15" spans="2:39" ht="15">
+    <row r="15" spans="2:39" ht="14.25">
       <c r="B15" s="382" t="s">
         <v>173</v>
       </c>
@@ -11789,7 +11796,7 @@
       <c r="AL15"/>
       <c r="AM15"/>
     </row>
-    <row r="16" spans="2:39" ht="15">
+    <row r="16" spans="2:39" ht="14.25">
       <c r="B16" s="382" t="s">
         <v>173</v>
       </c>
@@ -11819,7 +11826,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="2:39" ht="15">
+    <row r="17" spans="2:39" ht="14.25">
       <c r="B17" s="382" t="s">
         <v>173</v>
       </c>
@@ -11849,7 +11856,7 @@
       <c r="AL17"/>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="2:39" ht="15">
+    <row r="18" spans="2:39" ht="14.25">
       <c r="B18" s="382" t="s">
         <v>173</v>
       </c>
@@ -11879,7 +11886,7 @@
       <c r="AL18"/>
       <c r="AM18"/>
     </row>
-    <row r="19" spans="2:39" ht="15">
+    <row r="19" spans="2:39" ht="14.25">
       <c r="B19" s="382" t="s">
         <v>173</v>
       </c>
@@ -11909,7 +11916,7 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="2:39" ht="15">
+    <row r="20" spans="2:39" ht="14.25">
       <c r="B20" s="382" t="s">
         <v>173</v>
       </c>
@@ -11939,7 +11946,7 @@
       <c r="AL20"/>
       <c r="AM20"/>
     </row>
-    <row r="21" spans="2:39" ht="15">
+    <row r="21" spans="2:39" ht="14.25">
       <c r="B21" s="382" t="s">
         <v>173</v>
       </c>
@@ -11969,7 +11976,7 @@
       <c r="AL21"/>
       <c r="AM21"/>
     </row>
-    <row r="22" spans="2:39" ht="15">
+    <row r="22" spans="2:39" ht="14.25">
       <c r="B22" s="382" t="s">
         <v>173</v>
       </c>
@@ -11999,7 +12006,7 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="2:39" ht="15">
+    <row r="23" spans="2:39" ht="14.25">
       <c r="B23" s="169" t="s">
         <v>173</v>
       </c>
@@ -12029,7 +12036,7 @@
       <c r="AL23"/>
       <c r="AM23"/>
     </row>
-    <row r="24" spans="2:39" ht="15">
+    <row r="24" spans="2:39" ht="14.25">
       <c r="B24" s="170" t="s">
         <v>173</v>
       </c>
@@ -12059,7 +12066,7 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="2:39" ht="15">
+    <row r="25" spans="2:39" ht="14.25">
       <c r="B25" s="170" t="s">
         <v>173</v>
       </c>
@@ -12089,7 +12096,7 @@
       <c r="AL25"/>
       <c r="AM25"/>
     </row>
-    <row r="26" spans="2:39" ht="15">
+    <row r="26" spans="2:39" ht="14.25">
       <c r="B26" s="170" t="s">
         <v>173</v>
       </c>
@@ -12119,7 +12126,7 @@
       <c r="AL26"/>
       <c r="AM26"/>
     </row>
-    <row r="27" spans="2:39" ht="15">
+    <row r="27" spans="2:39" ht="14.25">
       <c r="B27" s="170" t="s">
         <v>173</v>
       </c>
@@ -12149,7 +12156,7 @@
       <c r="AL27"/>
       <c r="AM27"/>
     </row>
-    <row r="28" spans="2:39" ht="15">
+    <row r="28" spans="2:39" ht="14.25">
       <c r="B28" s="170" t="s">
         <v>173</v>
       </c>
@@ -12179,7 +12186,7 @@
       <c r="AL28"/>
       <c r="AM28"/>
     </row>
-    <row r="29" spans="2:39" ht="15">
+    <row r="29" spans="2:39" ht="14.25">
       <c r="B29" s="170" t="s">
         <v>173</v>
       </c>
@@ -12209,7 +12216,7 @@
       <c r="AL29"/>
       <c r="AM29"/>
     </row>
-    <row r="30" spans="2:39" ht="15">
+    <row r="30" spans="2:39" ht="14.25">
       <c r="B30" s="170" t="s">
         <v>173</v>
       </c>
@@ -12239,7 +12246,7 @@
       <c r="AL30"/>
       <c r="AM30"/>
     </row>
-    <row r="31" spans="2:39" ht="15">
+    <row r="31" spans="2:39" ht="14.25">
       <c r="B31" s="170" t="s">
         <v>173</v>
       </c>
@@ -12269,7 +12276,7 @@
       <c r="AL31"/>
       <c r="AM31"/>
     </row>
-    <row r="32" spans="2:39" ht="15">
+    <row r="32" spans="2:39" ht="14.25">
       <c r="B32" s="170" t="s">
         <v>173</v>
       </c>
@@ -12299,7 +12306,7 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="2:39" ht="15">
+    <row r="33" spans="2:39" ht="14.25">
       <c r="B33" s="170" t="s">
         <v>173</v>
       </c>
@@ -12329,7 +12336,7 @@
       <c r="AL33"/>
       <c r="AM33"/>
     </row>
-    <row r="34" spans="2:39" ht="15">
+    <row r="34" spans="2:39" ht="14.25">
       <c r="B34" s="170" t="s">
         <v>173</v>
       </c>
@@ -12359,7 +12366,7 @@
       <c r="AL34"/>
       <c r="AM34"/>
     </row>
-    <row r="35" spans="2:39" ht="15">
+    <row r="35" spans="2:39" ht="14.25">
       <c r="B35" s="170" t="s">
         <v>173</v>
       </c>
@@ -12389,7 +12396,7 @@
       <c r="AL35"/>
       <c r="AM35"/>
     </row>
-    <row r="36" spans="2:39" ht="15">
+    <row r="36" spans="2:39" ht="14.25">
       <c r="B36" s="170" t="s">
         <v>173</v>
       </c>
@@ -12419,7 +12426,7 @@
       <c r="AL36"/>
       <c r="AM36"/>
     </row>
-    <row r="37" spans="2:39" ht="15">
+    <row r="37" spans="2:39" ht="14.25">
       <c r="B37" s="171" t="s">
         <v>173</v>
       </c>
@@ -12449,7 +12456,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="38" spans="2:39" ht="15">
+    <row r="38" spans="2:39" ht="14.25">
       <c r="B38" s="170" t="s">
         <v>173</v>
       </c>
@@ -12479,7 +12486,7 @@
       <c r="AL38"/>
       <c r="AM38"/>
     </row>
-    <row r="39" spans="2:39" ht="15">
+    <row r="39" spans="2:39" ht="14.25">
       <c r="B39" s="170" t="s">
         <v>173</v>
       </c>
@@ -12509,7 +12516,7 @@
       <c r="AL39"/>
       <c r="AM39"/>
     </row>
-    <row r="40" spans="2:39" ht="15">
+    <row r="40" spans="2:39" ht="14.25">
       <c r="B40" s="170" t="s">
         <v>173</v>
       </c>
@@ -12539,7 +12546,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="2:39" ht="15">
+    <row r="41" spans="2:39" ht="14.25">
       <c r="B41" s="170" t="s">
         <v>173</v>
       </c>
@@ -12569,7 +12576,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="2:39" ht="15">
+    <row r="42" spans="2:39" ht="14.25">
       <c r="B42" s="170" t="s">
         <v>173</v>
       </c>
@@ -12599,7 +12606,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="2:39" ht="15">
+    <row r="43" spans="2:39" ht="14.25">
       <c r="B43" s="170" t="s">
         <v>173</v>
       </c>
@@ -12629,7 +12636,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="2:39" ht="15">
+    <row r="44" spans="2:39" ht="14.25">
       <c r="B44" s="170" t="s">
         <v>173</v>
       </c>
@@ -12659,7 +12666,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="2:39" ht="15">
+    <row r="45" spans="2:39" ht="14.25">
       <c r="B45" s="170" t="s">
         <v>173</v>
       </c>
@@ -12689,7 +12696,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="2:39" ht="15">
+    <row r="46" spans="2:39" ht="14.25">
       <c r="B46" s="170" t="s">
         <v>173</v>
       </c>
@@ -12719,7 +12726,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="2:39" ht="15">
+    <row r="47" spans="2:39" ht="14.25">
       <c r="B47" s="170" t="s">
         <v>173</v>
       </c>
@@ -12749,7 +12756,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="48" spans="2:39" ht="15">
+    <row r="48" spans="2:39" ht="14.25">
       <c r="B48" s="170" t="s">
         <v>173</v>
       </c>
@@ -12779,7 +12786,7 @@
       <c r="AL48"/>
       <c r="AM48"/>
     </row>
-    <row r="49" spans="2:39" ht="15">
+    <row r="49" spans="2:39" ht="14.25">
       <c r="B49" s="170" t="s">
         <v>173</v>
       </c>
@@ -12809,7 +12816,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="2:39" ht="15">
+    <row r="50" spans="2:39" ht="14.25">
       <c r="B50" s="170" t="s">
         <v>173</v>
       </c>
@@ -12839,7 +12846,7 @@
       <c r="AL50"/>
       <c r="AM50"/>
     </row>
-    <row r="51" spans="2:39" ht="15">
+    <row r="51" spans="2:39" ht="14.25">
       <c r="B51" s="171" t="s">
         <v>173</v>
       </c>
@@ -12869,7 +12876,7 @@
       <c r="AL51"/>
       <c r="AM51"/>
     </row>
-    <row r="52" spans="2:39" ht="15">
+    <row r="52" spans="2:39" ht="14.25">
       <c r="B52" s="170" t="s">
         <v>173</v>
       </c>
@@ -12901,7 +12908,7 @@
       <c r="AL52"/>
       <c r="AM52"/>
     </row>
-    <row r="53" spans="2:39" ht="15">
+    <row r="53" spans="2:39" ht="14.25">
       <c r="B53" s="170" t="s">
         <v>173</v>
       </c>
@@ -12935,7 +12942,7 @@
       <c r="AL53"/>
       <c r="AM53"/>
     </row>
-    <row r="54" spans="2:39" ht="15">
+    <row r="54" spans="2:39" ht="14.25">
       <c r="B54" s="170" t="s">
         <v>173</v>
       </c>
@@ -12963,7 +12970,7 @@
       <c r="N54" s="26"/>
       <c r="O54" s="26"/>
     </row>
-    <row r="55" spans="2:39" ht="15">
+    <row r="55" spans="2:39" ht="14.25">
       <c r="B55" s="170" t="s">
         <v>173</v>
       </c>
@@ -12992,7 +12999,7 @@
       <c r="O55" s="26"/>
       <c r="AI55" s="26"/>
     </row>
-    <row r="56" spans="2:39" ht="15">
+    <row r="56" spans="2:39" ht="14.25">
       <c r="B56" s="170" t="s">
         <v>173</v>
       </c>
@@ -13021,7 +13028,7 @@
       <c r="O56" s="26"/>
       <c r="AI56" s="26"/>
     </row>
-    <row r="57" spans="2:39" ht="15">
+    <row r="57" spans="2:39" ht="14.25">
       <c r="B57" s="170" t="s">
         <v>173</v>
       </c>
@@ -13050,7 +13057,7 @@
       <c r="O57" s="26"/>
       <c r="AI57" s="26"/>
     </row>
-    <row r="58" spans="2:39" ht="15">
+    <row r="58" spans="2:39" ht="14.25">
       <c r="B58" s="170" t="s">
         <v>173</v>
       </c>
@@ -13079,7 +13086,7 @@
       <c r="O58" s="26"/>
       <c r="AI58" s="26"/>
     </row>
-    <row r="59" spans="2:39" ht="15">
+    <row r="59" spans="2:39" ht="14.25">
       <c r="B59" s="170" t="s">
         <v>173</v>
       </c>
@@ -13108,7 +13115,7 @@
       <c r="O59" s="26"/>
       <c r="AI59" s="26"/>
     </row>
-    <row r="60" spans="2:39" ht="15">
+    <row r="60" spans="2:39" ht="14.25">
       <c r="B60" s="170" t="s">
         <v>173</v>
       </c>
@@ -13137,7 +13144,7 @@
       <c r="O60" s="26"/>
       <c r="AI60" s="26"/>
     </row>
-    <row r="61" spans="2:39" ht="15">
+    <row r="61" spans="2:39" ht="14.25">
       <c r="B61" s="170" t="s">
         <v>173</v>
       </c>
@@ -13166,7 +13173,7 @@
       <c r="O61" s="26"/>
       <c r="AI61" s="26"/>
     </row>
-    <row r="62" spans="2:39" ht="15">
+    <row r="62" spans="2:39" ht="14.25">
       <c r="B62" s="170" t="s">
         <v>173</v>
       </c>
@@ -13195,7 +13202,7 @@
       <c r="O62" s="26"/>
       <c r="AI62" s="26"/>
     </row>
-    <row r="63" spans="2:39" ht="15">
+    <row r="63" spans="2:39" ht="14.25">
       <c r="B63" s="170" t="s">
         <v>173</v>
       </c>
@@ -13224,7 +13231,7 @@
       <c r="O63" s="26"/>
       <c r="AI63" s="26"/>
     </row>
-    <row r="64" spans="2:39" ht="15">
+    <row r="64" spans="2:39" ht="14.25">
       <c r="B64" s="170" t="s">
         <v>173</v>
       </c>
@@ -13253,7 +13260,7 @@
       <c r="O64" s="26"/>
       <c r="AI64" s="26"/>
     </row>
-    <row r="65" spans="2:35" ht="15">
+    <row r="65" spans="2:35" ht="14.25">
       <c r="B65" s="171" t="s">
         <v>173</v>
       </c>
@@ -13282,7 +13289,7 @@
       <c r="O65" s="26"/>
       <c r="AI65" s="26"/>
     </row>
-    <row r="66" spans="2:35" ht="15">
+    <row r="66" spans="2:35" ht="14.25">
       <c r="B66" s="170" t="s">
         <v>173</v>
       </c>
@@ -13311,7 +13318,7 @@
       <c r="O66" s="26"/>
       <c r="AI66" s="26"/>
     </row>
-    <row r="67" spans="2:35" ht="15">
+    <row r="67" spans="2:35" ht="14.25">
       <c r="B67" s="170" t="s">
         <v>173</v>
       </c>
@@ -13340,7 +13347,7 @@
       <c r="O67" s="26"/>
       <c r="AI67" s="26"/>
     </row>
-    <row r="68" spans="2:35" ht="15">
+    <row r="68" spans="2:35" ht="14.25">
       <c r="B68" s="170" t="s">
         <v>173</v>
       </c>
@@ -13369,7 +13376,7 @@
       <c r="O68" s="26"/>
       <c r="AI68" s="26"/>
     </row>
-    <row r="69" spans="2:35" ht="15">
+    <row r="69" spans="2:35" ht="14.25">
       <c r="B69" s="170" t="s">
         <v>173</v>
       </c>
@@ -13398,7 +13405,7 @@
       <c r="O69" s="26"/>
       <c r="AI69" s="26"/>
     </row>
-    <row r="70" spans="2:35" ht="15">
+    <row r="70" spans="2:35" ht="14.25">
       <c r="B70" s="170" t="s">
         <v>173</v>
       </c>
@@ -13424,7 +13431,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:35" ht="15">
+    <row r="71" spans="2:35" ht="14.25">
       <c r="B71" s="170" t="s">
         <v>173</v>
       </c>
@@ -13450,7 +13457,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="2:35" ht="15">
+    <row r="72" spans="2:35" ht="14.25">
       <c r="B72" s="170" t="s">
         <v>173</v>
       </c>
@@ -13476,7 +13483,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:35" ht="15">
+    <row r="73" spans="2:35" ht="14.25">
       <c r="B73" s="170" t="s">
         <v>173</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:35" ht="15">
+    <row r="74" spans="2:35" ht="14.25">
       <c r="B74" s="170" t="s">
         <v>173</v>
       </c>
@@ -13529,7 +13536,7 @@
       </c>
       <c r="AI74" s="26"/>
     </row>
-    <row r="75" spans="2:35" ht="15">
+    <row r="75" spans="2:35" ht="14.25">
       <c r="B75" s="170" t="s">
         <v>173</v>
       </c>
@@ -13555,7 +13562,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:35" ht="15">
+    <row r="76" spans="2:35" ht="14.25">
       <c r="B76" s="170" t="s">
         <v>173</v>
       </c>
@@ -13581,7 +13588,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="2:35" ht="15">
+    <row r="77" spans="2:35" ht="14.25">
       <c r="B77" s="170" t="s">
         <v>173</v>
       </c>
@@ -13607,7 +13614,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="2:35" ht="15">
+    <row r="78" spans="2:35" ht="14.25">
       <c r="B78" s="170" t="s">
         <v>173</v>
       </c>
@@ -13633,7 +13640,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="2:35" ht="15">
+    <row r="79" spans="2:35" ht="14.25">
       <c r="B79" s="171" t="s">
         <v>173</v>
       </c>
@@ -13659,7 +13666,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="2:35" ht="15">
+    <row r="80" spans="2:35" ht="14.25">
       <c r="B80" s="170" t="s">
         <v>173</v>
       </c>
@@ -13685,7 +13692,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="2:33" ht="15">
+    <row r="81" spans="2:33" ht="14.25">
       <c r="B81" s="170" t="s">
         <v>173</v>
       </c>
@@ -13711,7 +13718,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="2:33" ht="15">
+    <row r="82" spans="2:33" ht="14.25">
       <c r="B82" s="170" t="s">
         <v>173</v>
       </c>
@@ -13737,7 +13744,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="83" spans="2:33" ht="15">
+    <row r="83" spans="2:33" ht="14.25">
       <c r="B83" s="170" t="s">
         <v>173</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="2:33" ht="15">
+    <row r="84" spans="2:33" ht="14.25">
       <c r="B84" s="170" t="s">
         <v>173</v>
       </c>
@@ -13789,7 +13796,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="2:33" ht="15">
+    <row r="85" spans="2:33" ht="14.25">
       <c r="B85" s="170" t="s">
         <v>173</v>
       </c>
@@ -13815,7 +13822,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="2:33" ht="15">
+    <row r="86" spans="2:33" ht="14.25">
       <c r="B86" s="170" t="s">
         <v>173</v>
       </c>
@@ -13841,7 +13848,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="2:33" ht="15">
+    <row r="87" spans="2:33" ht="14.25">
       <c r="B87" s="170" t="s">
         <v>173</v>
       </c>
@@ -13867,7 +13874,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="2:33" ht="15">
+    <row r="88" spans="2:33" ht="14.25">
       <c r="B88" s="170" t="s">
         <v>173</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="2:33" ht="15">
+    <row r="89" spans="2:33" ht="14.25">
       <c r="B89" s="170" t="s">
         <v>173</v>
       </c>
@@ -13919,7 +13926,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="2:33" ht="15">
+    <row r="90" spans="2:33" ht="14.25">
       <c r="B90" s="170" t="s">
         <v>173</v>
       </c>
@@ -13945,7 +13952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="2:33" ht="15">
+    <row r="91" spans="2:33" ht="14.25">
       <c r="B91" s="170" t="s">
         <v>173</v>
       </c>
@@ -13974,7 +13981,7 @@
       <c r="O91" s="26"/>
       <c r="AG91" s="26"/>
     </row>
-    <row r="92" spans="2:33" ht="15">
+    <row r="92" spans="2:33" ht="14.25">
       <c r="B92" s="170" t="s">
         <v>173</v>
       </c>
@@ -14003,7 +14010,7 @@
       <c r="O92" s="26"/>
       <c r="AG92" s="26"/>
     </row>
-    <row r="93" spans="2:33" ht="15">
+    <row r="93" spans="2:33" ht="14.25">
       <c r="B93" s="171" t="s">
         <v>173</v>
       </c>
@@ -14054,32 +14061,32 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" style="14"/>
+    <col min="8" max="8" width="6.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.73046875" style="14"/>
     <col min="13" max="13" width="39" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="10.7109375" style="14"/>
-    <col min="23" max="23" width="27.7109375" style="14" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="14"/>
-    <col min="26" max="26" width="10.7109375" style="14" customWidth="1"/>
-    <col min="27" max="34" width="10.7109375" style="14"/>
-    <col min="35" max="35" width="25.28515625" style="14" customWidth="1"/>
-    <col min="36" max="36" width="57.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="10.73046875" style="14"/>
+    <col min="23" max="23" width="27.73046875" style="14" customWidth="1"/>
+    <col min="24" max="24" width="11.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.73046875" style="14"/>
+    <col min="26" max="26" width="10.73046875" style="14" customWidth="1"/>
+    <col min="27" max="34" width="10.73046875" style="14"/>
+    <col min="35" max="35" width="25.265625" style="14" customWidth="1"/>
+    <col min="36" max="36" width="57.59765625" style="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.7109375" style="14"/>
+    <col min="38" max="16384" width="10.73046875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:45" ht="15">
+    <row r="4" spans="2:45" ht="14.25">
       <c r="B4" s="7" t="s">
         <v>254</v>
       </c>
@@ -14117,7 +14124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="15">
+    <row r="6" spans="2:45" ht="14.25">
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
         <v>26</v>
@@ -14141,7 +14148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="15">
+    <row r="8" spans="2:45" ht="14.25">
       <c r="B8" s="7" t="s">
         <v>255</v>
       </c>
@@ -14304,7 +14311,7 @@
       <c r="AR10"/>
       <c r="AS10"/>
     </row>
-    <row r="11" spans="2:45" ht="15">
+    <row r="11" spans="2:45" ht="14.25">
       <c r="B11" s="12"/>
       <c r="C11" s="59" t="s">
         <v>26</v>
@@ -14399,7 +14406,7 @@
       <c r="AR11"/>
       <c r="AS11"/>
     </row>
-    <row r="12" spans="2:45" ht="15">
+    <row r="12" spans="2:45" ht="14.25">
       <c r="B12" s="12"/>
       <c r="C12" s="59" t="s">
         <v>26</v>
@@ -14499,7 +14506,7 @@
       <c r="AR12"/>
       <c r="AS12"/>
     </row>
-    <row r="13" spans="2:45" ht="15">
+    <row r="13" spans="2:45" ht="14.25">
       <c r="B13" s="12"/>
       <c r="C13" s="59" t="s">
         <v>26</v>
@@ -14599,7 +14606,7 @@
       <c r="AR13"/>
       <c r="AS13"/>
     </row>
-    <row r="14" spans="2:45" ht="15">
+    <row r="14" spans="2:45" ht="14.25">
       <c r="B14" s="12"/>
       <c r="C14" s="59" t="s">
         <v>26</v>
@@ -14695,7 +14702,7 @@
       <c r="AR14"/>
       <c r="AS14"/>
     </row>
-    <row r="15" spans="2:45" ht="15">
+    <row r="15" spans="2:45" ht="14.25">
       <c r="B15" s="28"/>
       <c r="C15" s="59" t="s">
         <v>26</v>
@@ -14795,7 +14802,7 @@
       <c r="AR15"/>
       <c r="AS15"/>
     </row>
-    <row r="16" spans="2:45" ht="15">
+    <row r="16" spans="2:45" ht="14.25">
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
         <v>26</v>
@@ -14892,7 +14899,7 @@
       <c r="AR16"/>
       <c r="AS16"/>
     </row>
-    <row r="17" spans="2:45" ht="15">
+    <row r="17" spans="2:45" ht="14.25">
       <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
@@ -14988,7 +14995,7 @@
       <c r="AR17"/>
       <c r="AS17"/>
     </row>
-    <row r="18" spans="2:45" ht="15">
+    <row r="18" spans="2:45" ht="14.25">
       <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
@@ -15015,7 +15022,7 @@
       <c r="AR18"/>
       <c r="AS18"/>
     </row>
-    <row r="19" spans="2:45" ht="15">
+    <row r="19" spans="2:45" ht="14.25">
       <c r="C19" s="12" t="s">
         <v>26</v>
       </c>
@@ -15045,7 +15052,7 @@
       <c r="AR19"/>
       <c r="AS19"/>
     </row>
-    <row r="20" spans="2:45" ht="15">
+    <row r="20" spans="2:45" ht="14.25">
       <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
@@ -15087,7 +15094,7 @@
       <c r="AR20"/>
       <c r="AS20"/>
     </row>
-    <row r="21" spans="2:45" ht="15">
+    <row r="21" spans="2:45" ht="14.25">
       <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
@@ -15131,7 +15138,7 @@
       <c r="AR21"/>
       <c r="AS21"/>
     </row>
-    <row r="22" spans="2:45" ht="15">
+    <row r="22" spans="2:45" ht="14.25">
       <c r="C22" s="28" t="s">
         <v>26</v>
       </c>
@@ -15169,7 +15176,7 @@
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
     </row>
-    <row r="23" spans="2:45" ht="15">
+    <row r="23" spans="2:45" ht="14.25">
       <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
@@ -15205,7 +15212,7 @@
       <c r="U23" s="26"/>
       <c r="AO23" s="26"/>
     </row>
-    <row r="24" spans="2:45" ht="15">
+    <row r="24" spans="2:45" ht="14.25">
       <c r="B24" s="24"/>
       <c r="C24" s="23" t="s">
         <v>26</v>
@@ -15241,7 +15248,7 @@
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
     </row>
-    <row r="25" spans="2:45" ht="15">
+    <row r="25" spans="2:45" ht="14.25">
       <c r="C25" s="12" t="s">
         <v>26</v>
       </c>
@@ -15276,7 +15283,7 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
     </row>
-    <row r="26" spans="2:45" ht="15">
+    <row r="26" spans="2:45" ht="14.25">
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
@@ -15311,7 +15318,7 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
     </row>
-    <row r="27" spans="2:45" ht="15">
+    <row r="27" spans="2:45" ht="14.25">
       <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
@@ -15349,7 +15356,7 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
     </row>
-    <row r="28" spans="2:45" ht="15">
+    <row r="28" spans="2:45" ht="14.25">
       <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
@@ -15387,7 +15394,7 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
     </row>
-    <row r="29" spans="2:45" ht="15">
+    <row r="29" spans="2:45" ht="14.25">
       <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
@@ -15425,7 +15432,7 @@
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
     </row>
-    <row r="30" spans="2:45" ht="15">
+    <row r="30" spans="2:45" ht="14.25">
       <c r="C30" s="28" t="s">
         <v>26</v>
       </c>
@@ -15463,7 +15470,7 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
     </row>
-    <row r="31" spans="2:45" ht="15">
+    <row r="31" spans="2:45" ht="14.25">
       <c r="C31" s="12" t="s">
         <v>26</v>
       </c>
@@ -15498,7 +15505,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
     </row>
-    <row r="32" spans="2:45" ht="15">
+    <row r="32" spans="2:45" ht="14.25">
       <c r="B32" s="24"/>
       <c r="C32" s="23" t="s">
         <v>26</v>
@@ -15534,7 +15541,7 @@
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
     </row>
-    <row r="33" spans="2:22" ht="15">
+    <row r="33" spans="2:22" ht="14.25">
       <c r="C33" s="12" t="s">
         <v>26</v>
       </c>
@@ -15569,7 +15576,7 @@
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
     </row>
-    <row r="34" spans="2:22" ht="15">
+    <row r="34" spans="2:22" ht="14.25">
       <c r="C34" s="12" t="s">
         <v>26</v>
       </c>
@@ -15604,7 +15611,7 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
     </row>
-    <row r="35" spans="2:22" ht="15">
+    <row r="35" spans="2:22" ht="14.25">
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -15642,7 +15649,7 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="2:22" ht="15">
+    <row r="36" spans="2:22" ht="14.25">
       <c r="C36" s="12" t="s">
         <v>26</v>
       </c>
@@ -15680,7 +15687,7 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="2:22" ht="15">
+    <row r="37" spans="2:22" ht="14.25">
       <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
@@ -15718,7 +15725,7 @@
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="2:22" ht="15">
+    <row r="38" spans="2:22" ht="14.25">
       <c r="C38" s="28" t="s">
         <v>26</v>
       </c>
@@ -15756,7 +15763,7 @@
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
     </row>
-    <row r="39" spans="2:22" ht="15">
+    <row r="39" spans="2:22" ht="14.25">
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
@@ -15791,7 +15798,7 @@
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:22" ht="15">
+    <row r="40" spans="2:22" ht="14.25">
       <c r="B40" s="24"/>
       <c r="C40" s="23" t="s">
         <v>26</v>
@@ -15827,7 +15834,7 @@
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="2:22" ht="15">
+    <row r="41" spans="2:22" ht="14.25">
       <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
@@ -15858,7 +15865,7 @@
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="2:22" ht="15">
+    <row r="42" spans="2:22" ht="14.25">
       <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
@@ -15889,7 +15896,7 @@
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="2:22" ht="15">
+    <row r="43" spans="2:22" ht="14.25">
       <c r="C43" s="12" t="s">
         <v>26</v>
       </c>
@@ -15923,7 +15930,7 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="2:22" ht="15">
+    <row r="44" spans="2:22" ht="14.25">
       <c r="C44" s="12" t="s">
         <v>26</v>
       </c>
@@ -15957,7 +15964,7 @@
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
     </row>
-    <row r="45" spans="2:22" ht="15">
+    <row r="45" spans="2:22" ht="14.25">
       <c r="C45" s="12" t="s">
         <v>26</v>
       </c>
@@ -15991,7 +15998,7 @@
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="2:22" ht="15">
+    <row r="46" spans="2:22" ht="14.25">
       <c r="C46" s="28" t="s">
         <v>26</v>
       </c>
@@ -16026,7 +16033,7 @@
       <c r="U46" s="26"/>
       <c r="V46" s="26"/>
     </row>
-    <row r="47" spans="2:22" ht="15">
+    <row r="47" spans="2:22" ht="14.25">
       <c r="C47" s="12" t="s">
         <v>26</v>
       </c>
@@ -16058,7 +16065,7 @@
       <c r="U47" s="26"/>
       <c r="V47" s="26"/>
     </row>
-    <row r="48" spans="2:22" ht="15">
+    <row r="48" spans="2:22" ht="14.25">
       <c r="B48" s="24"/>
       <c r="C48" s="23" t="s">
         <v>26</v>
@@ -16091,7 +16098,7 @@
       <c r="U48" s="26"/>
       <c r="V48" s="26"/>
     </row>
-    <row r="49" spans="2:22" ht="15">
+    <row r="49" spans="2:22" ht="14.25">
       <c r="C49" s="12" t="s">
         <v>26</v>
       </c>
@@ -16127,7 +16134,7 @@
       <c r="U49" s="26"/>
       <c r="V49" s="26"/>
     </row>
-    <row r="50" spans="2:22" ht="15">
+    <row r="50" spans="2:22" ht="14.25">
       <c r="C50" s="12" t="s">
         <v>26</v>
       </c>
@@ -16162,7 +16169,7 @@
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
     </row>
-    <row r="51" spans="2:22" ht="15">
+    <row r="51" spans="2:22" ht="14.25">
       <c r="C51" s="12" t="s">
         <v>26</v>
       </c>
@@ -16201,7 +16208,7 @@
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
     </row>
-    <row r="52" spans="2:22" ht="15">
+    <row r="52" spans="2:22" ht="14.25">
       <c r="C52" s="12" t="s">
         <v>26</v>
       </c>
@@ -16240,7 +16247,7 @@
       <c r="U52" s="26"/>
       <c r="V52" s="26"/>
     </row>
-    <row r="53" spans="2:22" ht="15">
+    <row r="53" spans="2:22" ht="14.25">
       <c r="C53" s="12" t="s">
         <v>26</v>
       </c>
@@ -16279,7 +16286,7 @@
       <c r="U53" s="26"/>
       <c r="V53" s="26"/>
     </row>
-    <row r="54" spans="2:22" ht="15">
+    <row r="54" spans="2:22" ht="14.25">
       <c r="C54" s="28" t="s">
         <v>26</v>
       </c>
@@ -16318,7 +16325,7 @@
       <c r="U54" s="26"/>
       <c r="V54" s="26"/>
     </row>
-    <row r="55" spans="2:22" ht="15">
+    <row r="55" spans="2:22" ht="14.25">
       <c r="C55" s="12" t="s">
         <v>26</v>
       </c>
@@ -16354,7 +16361,7 @@
       <c r="U55" s="26"/>
       <c r="V55" s="26"/>
     </row>
-    <row r="56" spans="2:22" ht="15">
+    <row r="56" spans="2:22" ht="14.25">
       <c r="B56" s="24"/>
       <c r="C56" s="23" t="s">
         <v>26</v>
@@ -16391,7 +16398,7 @@
       <c r="U56" s="26"/>
       <c r="V56" s="26"/>
     </row>
-    <row r="57" spans="2:22" ht="15">
+    <row r="57" spans="2:22" ht="14.25">
       <c r="C57" s="28" t="s">
         <v>26</v>
       </c>
@@ -16427,7 +16434,7 @@
       <c r="U57" s="26"/>
       <c r="V57" s="26"/>
     </row>
-    <row r="58" spans="2:22" ht="15">
+    <row r="58" spans="2:22" ht="14.25">
       <c r="C58" s="12" t="s">
         <v>26</v>
       </c>
@@ -16463,7 +16470,7 @@
       <c r="U58" s="26"/>
       <c r="V58" s="26"/>
     </row>
-    <row r="59" spans="2:22" ht="15">
+    <row r="59" spans="2:22" ht="14.25">
       <c r="C59" s="12" t="s">
         <v>26</v>
       </c>
@@ -16502,7 +16509,7 @@
       <c r="U59" s="26"/>
       <c r="V59" s="26"/>
     </row>
-    <row r="60" spans="2:22" ht="15">
+    <row r="60" spans="2:22" ht="14.25">
       <c r="C60" s="12" t="s">
         <v>26</v>
       </c>
@@ -16541,7 +16548,7 @@
       <c r="U60" s="26"/>
       <c r="V60" s="26"/>
     </row>
-    <row r="61" spans="2:22" ht="15">
+    <row r="61" spans="2:22" ht="14.25">
       <c r="C61" s="12" t="s">
         <v>26</v>
       </c>
@@ -16580,7 +16587,7 @@
       <c r="U61" s="26"/>
       <c r="V61" s="26"/>
     </row>
-    <row r="62" spans="2:22" ht="15">
+    <row r="62" spans="2:22" ht="14.25">
       <c r="C62" s="28" t="s">
         <v>26</v>
       </c>
@@ -16619,7 +16626,7 @@
       <c r="U62" s="26"/>
       <c r="V62" s="26"/>
     </row>
-    <row r="63" spans="2:22" ht="15">
+    <row r="63" spans="2:22" ht="14.25">
       <c r="C63" s="12" t="s">
         <v>26</v>
       </c>
@@ -16655,7 +16662,7 @@
       <c r="U63" s="26"/>
       <c r="V63" s="26"/>
     </row>
-    <row r="64" spans="2:22" ht="15">
+    <row r="64" spans="2:22" ht="14.25">
       <c r="B64" s="24"/>
       <c r="C64" s="23" t="s">
         <v>26</v>
@@ -16740,13 +16747,13 @@
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.265625" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -16853,7 +16860,7 @@
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
     </row>
-    <row r="4" spans="1:36" ht="15">
+    <row r="4" spans="1:36" ht="14.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
@@ -16889,7 +16896,7 @@
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" spans="1:36" ht="15">
+    <row r="5" spans="1:36" ht="14.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>64</v>
@@ -16925,7 +16932,7 @@
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
     </row>
-    <row r="6" spans="1:36" ht="13.5" thickBot="1">
+    <row r="6" spans="1:36" ht="13.15" thickBot="1">
       <c r="A6" s="152" t="s">
         <v>191</v>
       </c>
@@ -17019,7 +17026,7 @@
       </c>
       <c r="AB7" s="130"/>
     </row>
-    <row r="8" spans="1:36" ht="15">
+    <row r="8" spans="1:36" ht="14.25">
       <c r="A8" s="152" t="s">
         <v>38</v>
       </c>
@@ -17104,7 +17111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15">
+    <row r="9" spans="1:36" ht="14.25">
       <c r="A9" s="288">
         <f>1-'LineCap RAMSES 2015'!G8</f>
         <v>0.95</v>
@@ -17196,7 +17203,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15">
+    <row r="10" spans="1:36" ht="14.25">
       <c r="A10" s="291">
         <f>1-'LineCap RAMSES 2015'!G20</f>
         <v>0.92</v>
@@ -17288,7 +17295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15">
+    <row r="11" spans="1:36" ht="14.25">
       <c r="A11" s="291">
         <f>1-'LineCap RAMSES 2015'!G21</f>
         <v>0.92</v>
@@ -17380,7 +17387,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15">
+    <row r="12" spans="1:36" ht="14.25">
       <c r="A12" s="311">
         <f>1-'LineCap RAMSES 2015'!G12</f>
         <v>0.92</v>
@@ -17472,7 +17479,7 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15">
+    <row r="13" spans="1:36" ht="14.25">
       <c r="A13" s="298">
         <f>1-'LineCap RAMSES 2015'!G14</f>
         <v>0.92</v>
@@ -17564,7 +17571,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15">
+    <row r="14" spans="1:36" ht="14.25">
       <c r="A14" s="295">
         <f>1-'LineCap RAMSES 2015'!G22</f>
         <v>0.95</v>
@@ -17656,7 +17663,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15">
+    <row r="15" spans="1:36" ht="14.25">
       <c r="A15" s="175">
         <f>1-'LineCap RAMSES 2015'!G34</f>
         <v>0.92</v>
@@ -17748,7 +17755,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15">
+    <row r="16" spans="1:36" ht="14.25">
       <c r="A16" s="175">
         <f>1-'LineCap RAMSES 2015'!G10</f>
         <v>0.92</v>
@@ -17840,7 +17847,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15.75" thickBot="1">
+    <row r="17" spans="1:45" ht="14.65" thickBot="1">
       <c r="A17" s="175">
         <f>A15</f>
         <v>0.92</v>
@@ -17944,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15">
+    <row r="18" spans="1:45" ht="14.25">
       <c r="A18" s="26"/>
       <c r="B18" s="21" t="s">
         <v>24</v>
@@ -17978,7 +17985,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:45" ht="15">
+    <row r="19" spans="1:45" ht="14.25">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
         <v>64</v>
@@ -18023,7 +18030,7 @@
       <c r="AR19" s="37"/>
       <c r="AS19" s="37"/>
     </row>
-    <row r="20" spans="1:45" ht="45.75">
+    <row r="20" spans="1:45" ht="34.15">
       <c r="A20" s="26"/>
       <c r="B20" s="92" t="s">
         <v>169</v>
@@ -18596,7 +18603,7 @@
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
     </row>
-    <row r="26" spans="1:45" ht="13.5" thickBot="1">
+    <row r="26" spans="1:45" ht="13.15" thickBot="1">
       <c r="A26" s="26"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -18687,7 +18694,7 @@
       <c r="AR26" s="37"/>
       <c r="AS26" s="37"/>
     </row>
-    <row r="27" spans="1:45" ht="13.5" thickBot="1">
+    <row r="27" spans="1:45" ht="13.15" thickBot="1">
       <c r="A27" s="26"/>
       <c r="B27" s="92" t="s">
         <v>71</v>
@@ -18786,7 +18793,7 @@
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
     </row>
-    <row r="28" spans="1:45" ht="45.75">
+    <row r="28" spans="1:45" ht="34.15">
       <c r="A28" s="26"/>
       <c r="B28" s="228"/>
       <c r="C28" s="232" t="s">
@@ -19556,7 +19563,7 @@
       <c r="AR35" s="37"/>
       <c r="AS35" s="37"/>
     </row>
-    <row r="36" spans="1:45" ht="13.5" thickBot="1">
+    <row r="36" spans="1:45" ht="13.15" thickBot="1">
       <c r="A36" s="26"/>
       <c r="B36" s="92">
         <v>2015</v>
@@ -19632,7 +19639,7 @@
       <c r="AR36" s="37"/>
       <c r="AS36" s="37"/>
     </row>
-    <row r="37" spans="1:45" ht="45.75">
+    <row r="37" spans="1:45" ht="34.15">
       <c r="A37" s="26"/>
       <c r="B37" s="95" t="s">
         <v>170</v>
@@ -20022,7 +20029,7 @@
       <c r="AR41" s="37"/>
       <c r="AS41" s="37"/>
     </row>
-    <row r="42" spans="1:45" ht="13.5" thickBot="1">
+    <row r="42" spans="1:45" ht="13.15" thickBot="1">
       <c r="A42" s="26"/>
       <c r="B42" s="93" t="s">
         <v>217</v>
@@ -20100,7 +20107,7 @@
       <c r="AR42" s="37"/>
       <c r="AS42" s="37"/>
     </row>
-    <row r="43" spans="1:45" ht="13.5" thickBot="1">
+    <row r="43" spans="1:45" ht="13.15" thickBot="1">
       <c r="A43" s="26"/>
       <c r="B43" s="94" t="s">
         <v>218</v>
@@ -20470,7 +20477,7 @@
       <c r="AR48" s="37"/>
       <c r="AS48" s="37"/>
     </row>
-    <row r="49" spans="1:45" ht="13.5" thickBot="1">
+    <row r="49" spans="1:45" ht="13.15" thickBot="1">
       <c r="A49" s="14"/>
       <c r="B49" s="313">
         <v>2025</v>
@@ -20528,7 +20535,7 @@
       <c r="AR49" s="37"/>
       <c r="AS49" s="37"/>
     </row>
-    <row r="50" spans="1:45" ht="45.75">
+    <row r="50" spans="1:45" ht="34.15">
       <c r="A50" s="157"/>
       <c r="B50" s="317" t="s">
         <v>172</v>
@@ -20992,7 +20999,7 @@
       <c r="AR55" s="37"/>
       <c r="AS55" s="37"/>
     </row>
-    <row r="56" spans="1:45" ht="13.5" thickBot="1">
+    <row r="56" spans="1:45" ht="13.15" thickBot="1">
       <c r="A56" s="321">
         <v>3</v>
       </c>
@@ -21182,7 +21189,7 @@
       <c r="AR58" s="37"/>
       <c r="AS58" s="37"/>
     </row>
-    <row r="59" spans="1:45" ht="15">
+    <row r="59" spans="1:45" ht="14.25">
       <c r="A59" s="26"/>
       <c r="B59" s="119"/>
       <c r="C59" s="128" t="s">
@@ -21256,7 +21263,7 @@
       <c r="AR59" s="37"/>
       <c r="AS59" s="37"/>
     </row>
-    <row r="60" spans="1:45" ht="15">
+    <row r="60" spans="1:45" ht="14.25">
       <c r="A60" s="26"/>
       <c r="B60" s="119"/>
       <c r="C60" s="122"/>
@@ -21302,7 +21309,7 @@
       <c r="AR60" s="37"/>
       <c r="AS60" s="37"/>
     </row>
-    <row r="61" spans="1:45" ht="15">
+    <row r="61" spans="1:45" ht="14.25">
       <c r="A61" s="14"/>
       <c r="B61" s="301" t="s">
         <v>212</v>
@@ -21392,7 +21399,7 @@
       <c r="AR61" s="37"/>
       <c r="AS61" s="37"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" thickBot="1">
+    <row r="62" spans="1:45" ht="14.65" thickBot="1">
       <c r="A62" s="14"/>
       <c r="B62" s="301" t="s">
         <v>194</v>
@@ -21482,7 +21489,7 @@
       <c r="AR62" s="37"/>
       <c r="AS62" s="37"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" thickBot="1">
+    <row r="63" spans="1:45" ht="14.65" thickBot="1">
       <c r="A63" s="14"/>
       <c r="B63" s="305" t="s">
         <v>211</v>
@@ -21566,7 +21573,7 @@
       <c r="AR63" s="37"/>
       <c r="AS63" s="37"/>
     </row>
-    <row r="64" spans="1:45" ht="15">
+    <row r="64" spans="1:45" ht="14.25">
       <c r="A64" s="26"/>
       <c r="B64" s="305" t="s">
         <v>195</v>
@@ -21915,7 +21922,7 @@
       <c r="AR70" s="37"/>
       <c r="AS70" s="37"/>
     </row>
-    <row r="71" spans="1:45" ht="15">
+    <row r="71" spans="1:45" ht="14.25">
       <c r="S71" s="14"/>
       <c r="T71" s="184"/>
       <c r="U71" s="126"/>
@@ -21944,7 +21951,7 @@
       <c r="AR71" s="37"/>
       <c r="AS71" s="37"/>
     </row>
-    <row r="72" spans="1:45" ht="15">
+    <row r="72" spans="1:45" ht="14.25">
       <c r="S72" s="14"/>
       <c r="T72" s="184"/>
       <c r="U72" s="126"/>
@@ -21973,7 +21980,7 @@
       <c r="AR72" s="37"/>
       <c r="AS72" s="37"/>
     </row>
-    <row r="73" spans="1:45" ht="15">
+    <row r="73" spans="1:45" ht="14.25">
       <c r="S73" s="14"/>
       <c r="T73" s="184"/>
       <c r="U73" s="126"/>
@@ -22002,7 +22009,7 @@
       <c r="AR73" s="37"/>
       <c r="AS73" s="37"/>
     </row>
-    <row r="74" spans="1:45" ht="15">
+    <row r="74" spans="1:45" ht="14.25">
       <c r="S74" s="14"/>
       <c r="T74" s="184"/>
       <c r="U74" s="126"/>
@@ -22031,7 +22038,7 @@
       <c r="AR74" s="37"/>
       <c r="AS74" s="37"/>
     </row>
-    <row r="75" spans="1:45" ht="15">
+    <row r="75" spans="1:45" ht="14.25">
       <c r="S75" s="14"/>
       <c r="T75" s="184"/>
       <c r="U75" s="126"/>
@@ -22060,7 +22067,7 @@
       <c r="AR75" s="37"/>
       <c r="AS75" s="37"/>
     </row>
-    <row r="76" spans="1:45" ht="15">
+    <row r="76" spans="1:45" ht="14.25">
       <c r="S76" s="14"/>
       <c r="T76" s="184"/>
       <c r="U76" s="126"/>
@@ -22243,15 +22250,15 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="131" customWidth="1"/>
-    <col min="2" max="11" width="7.140625" style="131" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="131"/>
+    <col min="1" max="1" width="37.73046875" style="131" customWidth="1"/>
+    <col min="2" max="11" width="7.1328125" style="131" customWidth="1"/>
+    <col min="12" max="12" width="7.1328125" style="131" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1328125" style="131" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" style="131" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -23479,28 +23486,28 @@
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" customWidth="1"/>
+    <col min="7" max="7" width="22.1328125" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15.75">
+    <row r="3" spans="2:8" ht="15">
       <c r="B3" s="100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75">
+    <row r="4" spans="2:8" ht="15.4">
       <c r="B4" s="101" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="13.5" thickBot="1"/>
+    <row r="5" spans="2:8" ht="13.15" thickBot="1"/>
     <row r="6" spans="2:8" ht="25.9" customHeight="1">
       <c r="B6" s="415" t="s">
         <v>74</v>
@@ -23524,7 +23531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="13.5" thickBot="1">
+    <row r="7" spans="2:8" ht="13.15" thickBot="1">
       <c r="B7" s="416"/>
       <c r="C7" s="416"/>
       <c r="D7" s="416"/>
@@ -24347,47 +24354,47 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" ht="13.15">
       <c r="B46" s="115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" ht="13.15">
       <c r="B47" s="115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="13.15">
       <c r="B48" s="115" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" ht="13.15">
       <c r="B49" s="115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" ht="13.15">
       <c r="B50" s="115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" ht="13.15">
       <c r="B51" s="115" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" ht="13.15">
       <c r="B52" s="115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" ht="13.15">
       <c r="B53" s="115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" ht="13.15">
       <c r="B54" s="115"/>
     </row>
   </sheetData>
